--- a/tests/data/directional_solidification/G1_IKZ_NSI_23.ds.manualprotocol.xlsx
+++ b/tests/data/directional_solidification/G1_IKZ_NSI_23.ds.manualprotocol.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="218">
   <si>
     <t xml:space="preserve"># </t>
   </si>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">Hz</t>
   </si>
   <si>
-    <t xml:space="preserve">grad</t>
+    <t xml:space="preserve">deg</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">kW</t>
   </si>
   <si>
-    <t xml:space="preserve">°C</t>
+    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">Ending time</t>
@@ -74,85 +74,166 @@
     <t xml:space="preserve">Ar p</t>
   </si>
   <si>
-    <t xml:space="preserve">f1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phi1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phi2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phi3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phi4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phi5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phi6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phi7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phi8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phi9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iac1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iac2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iac3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iac4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iac5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iac6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iac7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iac8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iac9</t>
+    <t xml:space="preserve">f1_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f2_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f4_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f5_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f6_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f7_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f8_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f9_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f1_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f2_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f4_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f5_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f6_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f7_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f8_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f9_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phi1_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phi2_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phi3_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phi4_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phi5_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phi6_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phi7_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phi8_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phi9_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phi1_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phi2_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phi3_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phi4_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phi5_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phi6_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phi7_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phi8_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phi9_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iac1_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iac2_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iac3_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iac4_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iac5_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iac6_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iac7_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iac8_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iac9_F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iac1_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iac2_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iac3_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iac4_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iac5_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iac6_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iac7_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iac8_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iac9_F2</t>
   </si>
   <si>
     <t xml:space="preserve">Iges1</t>
@@ -254,41 +335,346 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-19 13:10:00+01</t>
+    <t xml:space="preserve">2023-03-19 13:10:00</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Vakuum AN Alles ENABLE setzen
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ACHTUNG:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Amplituden auf „0“ setzen PIDs überprüfen Abschaltbedingungen setzen, 850°C / 550°C, 10 K / s &amp; 550 / 250°C</t>
-    </r>
+    <t xml:space="preserve">2023-03-19 13:10:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-19 13:10:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-19 13:10:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-19 13:10:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-19 13:10:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-19 13:10:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11</t>
   </si>
 </sst>
 </file>
@@ -299,7 +685,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -344,13 +730,6 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -431,7 +810,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -440,27 +819,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -468,11 +847,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -480,19 +855,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -568,68 +935,177 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BN6"/>
+  <dimension ref="A1:CO10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="5.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="3.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="3.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="2" width="4.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="3.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="2" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="4.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="5.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="5.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="2" width="4.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="23" style="2" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="4.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="2" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="2" width="4.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="2" width="5.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="34" style="2" width="5.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="6.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="2" width="5.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="2" width="6.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="39" style="2" width="5.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="2" width="5.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="2" width="5.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="4.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="2" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="2" width="3.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="46" style="2" width="3.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="2" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="2" width="3.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="2" width="3.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="53" style="2" width="3.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="2" width="3.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="2" width="3.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="2" width="3.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="2" width="3.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="3.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="2" width="4.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="2" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="2" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="2" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="4.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="2" width="41.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="67" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="3.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="5.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="9" style="1" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="5.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="18" style="1" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="25" style="1" width="7.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="4.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="44" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="4.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="4.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="5.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="4.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="53" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="4.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="4.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="5.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="61" style="1" width="5.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="1" width="6.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="1" width="5.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="6.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="66" style="1" width="5.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="1" width="5.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="1" width="5.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="1" width="4.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="1" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="1" width="3.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="73" style="1" width="3.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="75" style="1" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="1" width="3.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="78" style="1" width="3.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="80" style="1" width="3.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="1" width="3.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="1" width="3.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="1" width="3.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="1" width="3.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="1" width="3.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="1" width="4.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="1" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="90" min="90" style="1" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="91" style="1" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="1" width="4.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="93" style="1" width="41.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1051" min="94" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1052" style="2" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="23.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -652,42 +1128,52 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
       <c r="AY1" s="5"/>
-      <c r="AZ1" s="6" t="s">
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BR1" s="5"/>
+      <c r="BS1" s="5"/>
+      <c r="BT1" s="5"/>
+      <c r="BU1" s="5"/>
+      <c r="BV1" s="5"/>
+      <c r="BW1" s="5"/>
+      <c r="BX1" s="5"/>
+      <c r="BY1" s="5"/>
+      <c r="BZ1" s="5"/>
+      <c r="CA1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="7" t="s">
+      <c r="CB1" s="6"/>
+      <c r="CC1" s="6"/>
+      <c r="CD1" s="6"/>
+      <c r="CE1" s="6"/>
+      <c r="CF1" s="6"/>
+      <c r="CG1" s="6"/>
+      <c r="CH1" s="6"/>
+      <c r="CI1" s="6"/>
+      <c r="CJ1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="BJ1" s="7"/>
-      <c r="BK1" s="7"/>
-      <c r="BL1" s="7"/>
-      <c r="BM1" s="7"/>
+      <c r="CK1" s="7"/>
+      <c r="CL1" s="7"/>
+      <c r="CM1" s="7"/>
+      <c r="CN1" s="7"/>
     </row>
     <row r="2" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
@@ -727,568 +1213,2474 @@
         <v>8</v>
       </c>
       <c r="P2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AS2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AT2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AU2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AV2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AW2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AX2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="BA2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="BB2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="BC2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="BD2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="BE2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="BF2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="BG2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="BH2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="BI2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BP2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BR2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="BS2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="BT2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" s="9" t="s">
+      <c r="BU2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AU2" s="9" t="s">
+      <c r="BV2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="BW2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="BX2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="BY2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="BZ2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AZ2" s="10" t="s">
+      <c r="CA2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="BA2" s="10" t="s">
+      <c r="CB2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="BB2" s="10" t="s">
+      <c r="CC2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="BC2" s="10" t="s">
+      <c r="CD2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="BD2" s="10" t="s">
+      <c r="CE2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="BE2" s="10" t="s">
+      <c r="CF2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="BF2" s="10" t="s">
+      <c r="CG2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="BG2" s="10" t="s">
+      <c r="CH2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="BH2" s="10" t="s">
+      <c r="CI2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="BI2" s="10" t="s">
+      <c r="CJ2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="BJ2" s="10" t="s">
+      <c r="CK2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="BK2" s="10" t="s">
+      <c r="CL2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="BL2" s="10" t="s">
+      <c r="CM2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="BM2" s="10" t="s">
+      <c r="CN2" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="true" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+    <row r="3" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="X3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AA3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AB3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AC3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AD3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AE3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AF3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AG3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AH3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AI3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AJ3" s="12" t="s">
+      <c r="AJ3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AK3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AL3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AM3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AN3" s="12" t="s">
+      <c r="AN3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AO3" s="12" t="s">
+      <c r="AO3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AP3" s="12" t="s">
+      <c r="AP3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AQ3" s="12" t="s">
+      <c r="AQ3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AR3" s="12" t="s">
+      <c r="AR3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AS3" s="12" t="s">
+      <c r="AS3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AT3" s="12" t="s">
+      <c r="AT3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AU3" s="12" t="s">
+      <c r="AU3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AV3" s="12" t="s">
+      <c r="AV3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AW3" s="12" t="s">
+      <c r="AW3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AX3" s="12" t="s">
+      <c r="AX3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AY3" s="12" t="s">
+      <c r="AY3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AZ3" s="12" t="s">
+      <c r="AZ3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="BA3" s="12" t="s">
+      <c r="BA3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="BB3" s="12" t="s">
+      <c r="BB3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="BC3" s="12" t="s">
+      <c r="BC3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="BD3" s="12" t="s">
+      <c r="BD3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="BE3" s="12" t="s">
+      <c r="BE3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="BF3" s="12" t="s">
+      <c r="BF3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="BG3" s="12" t="s">
+      <c r="BG3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="BH3" s="12" t="s">
+      <c r="BH3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="BI3" s="12" t="s">
+      <c r="BI3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="BJ3" s="12" t="s">
+      <c r="BJ3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="BK3" s="12" t="s">
+      <c r="BK3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="BL3" s="12" t="s">
+      <c r="BL3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="BM3" s="12" t="s">
+      <c r="BM3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="BN3" s="12" t="s">
+      <c r="BN3" s="10" t="s">
         <v>76</v>
       </c>
+      <c r="BO3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="BQ3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BR3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="BV3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BW3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BX3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="CA3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CB3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="CC3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE3" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="CF3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="CG3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="CH3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="CI3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK3" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL3" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="CM3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="CN3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="CO3" s="10" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="13" t="n">
+        <v>104</v>
+      </c>
+      <c r="B4" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="13" t="n">
+      <c r="C4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="13" t="n">
+      <c r="F4" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="13" t="n">
+      <c r="G4" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="H4" s="13" t="n">
+      <c r="H4" s="11" t="n">
         <v>200</v>
       </c>
-      <c r="I4" s="13" t="n">
+      <c r="I4" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="13" t="n">
+      <c r="J4" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="K4" s="13" t="n">
+      <c r="K4" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="L4" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P4" s="2" t="n">
+      <c r="L4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="R4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI4" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="BJ4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="BL4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="BN4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BO4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BP4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="BR4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="BW4" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="BX4" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="BY4" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="BZ4" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="CA4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF4" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="CG4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH4" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="CI4" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="CJ4" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="CK4" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="CL4" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="CM4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="CN4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="CO4" s="12"/>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BS5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BU5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BV5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BY5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CB5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CF5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CG5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CH5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CI5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CJ5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CK5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CL5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CM5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="CN5" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BO6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BP6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BQ6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BR6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BS6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BT6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BU6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BV6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BW6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BX6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BY6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="BZ6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CA6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CB6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CC6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CD6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CE6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CF6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CG6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CH6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="CI6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="CJ6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="CK6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CL6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="CM6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="CN6" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="R4" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH4" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI4" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP4" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AQ4" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AV4" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AW4" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AX4" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AY4" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="AZ4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="2" t="n">
-        <v>293</v>
-      </c>
-      <c r="BF4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG4" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="BH4" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="BI4" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="BJ4" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="BK4" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="BL4" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="BM4" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="BN4" s="15" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="13"/>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BR7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BS7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BT7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BU7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BV7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BW7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="BX7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="BY7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BZ7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CA7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CB7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CC7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CD7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CE7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CF7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="CG7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="CH7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="CI7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CJ7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="CK7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="CL7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CM7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="CN7" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BK8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BN8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BO8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BP8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BQ8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BR8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BS8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BT8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BU8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BV8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BY8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BZ8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CA8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CB8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CC8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CD8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CE8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CF8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CG8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CH8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CI8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="CJ8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="CK8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="CL8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CM8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="CN8" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BL9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BN9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BO9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BQ9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BR9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BS9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BT9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BU9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BV9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BW9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BX9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BY9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BZ9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="CA9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="CB9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CC9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CD9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CE9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CF9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CG9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CH9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CI9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CJ9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CK9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CL9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CM9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CN9" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BE10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BF10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BG10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BH10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BI10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BK10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BL10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BM10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BN10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BO10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BP10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BQ10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BS10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BT10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BU10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BV10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BW10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BY10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BZ10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="CC10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="CD10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="CE10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="CF10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="CH10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="CI10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CJ10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="CK10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="CM10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN10" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="G1:O1"/>
     <mergeCell ref="P1:X1"/>
-    <mergeCell ref="Y1:AG1"/>
-    <mergeCell ref="AH1:AP1"/>
-    <mergeCell ref="AQ1:AY1"/>
-    <mergeCell ref="AZ1:BH1"/>
-    <mergeCell ref="BI1:BM1"/>
+    <mergeCell ref="AP1:AX1"/>
+    <mergeCell ref="BI1:BQ1"/>
+    <mergeCell ref="BR1:BZ1"/>
+    <mergeCell ref="CA1:CI1"/>
+    <mergeCell ref="CJ1:CN1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
